--- a/ProcesosIndustriales/Model/t1_confection/CambiosEscenarios.xlsx
+++ b/ProcesosIndustriales/Model/t1_confection/CambiosEscenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juanc\Dropbox\modelo_pi_202303\t1_confection\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A611D6F4-4AE5-4727-BD79-1107E7DACD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38BB8A51-DAF7-49D7-9D24-0B5A743BD000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IAR" sheetId="7" r:id="rId1"/>
@@ -164,12 +164,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Hipervínculo 2 2" xfId="5" xr:uid="{F5D6FD65-E337-47C1-9301-1750C7AC3B26}"/>
@@ -455,11 +456,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF1DA609-A8FC-4643-A648-F39AEBC5222A}">
-  <dimension ref="A1:G54"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -470,7 +471,7 @@
     <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
@@ -508,15 +509,16 @@
         <v>0.24968253473241797</v>
       </c>
       <c r="F2" s="3">
-        <f t="shared" ref="F2:G2" si="0">1-C2</f>
+        <f>1-C2</f>
         <v>0.24968253473241797</v>
       </c>
       <c r="G2" s="3">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="G2" si="0">1-D2</f>
         <v>0.24968253473241797</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2" s="5"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2019</v>
       </c>
@@ -541,8 +543,9 @@
         <f t="shared" ref="G3:G54" si="3">1-D3</f>
         <v>0.16000000000000003</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2020</v>
       </c>
@@ -567,8 +570,9 @@
         <f t="shared" si="3"/>
         <v>0.20999999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4" s="5"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2021</v>
       </c>
@@ -593,8 +597,9 @@
         <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2022</v>
       </c>
@@ -619,8 +624,9 @@
         <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2023</v>
       </c>
@@ -645,8 +651,9 @@
         <f t="shared" si="3"/>
         <v>0.12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2024</v>
       </c>
@@ -654,7 +661,7 @@
         <v>0.87740740740740719</v>
       </c>
       <c r="C8" s="3">
-        <v>0.8696296296296282</v>
+        <v>0.85142857142857142</v>
       </c>
       <c r="D8" s="3">
         <v>0.87404255319149016</v>
@@ -665,14 +672,15 @@
       </c>
       <c r="F8" s="3">
         <f t="shared" si="2"/>
-        <v>0.1303703703703718</v>
+        <v>0.14857142857142858</v>
       </c>
       <c r="G8" s="3">
         <f t="shared" si="3"/>
         <v>0.12595744680850984</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2025</v>
       </c>
@@ -680,7 +688,7 @@
         <v>0.87481481481481449</v>
       </c>
       <c r="C9" s="3">
-        <v>0.85925925925925739</v>
+        <v>0.82285714285714284</v>
       </c>
       <c r="D9" s="3">
         <v>0.86808510638297953</v>
@@ -691,14 +699,15 @@
       </c>
       <c r="F9" s="3">
         <f t="shared" si="2"/>
-        <v>0.14074074074074261</v>
+        <v>0.17714285714285716</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="3"/>
         <v>0.13191489361702047</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2026</v>
       </c>
@@ -706,7 +715,7 @@
         <v>0.87222222222222179</v>
       </c>
       <c r="C10" s="3">
-        <v>0.84888888888888658</v>
+        <v>0.79428571428571426</v>
       </c>
       <c r="D10" s="3">
         <v>0.86212765957446891</v>
@@ -717,14 +726,15 @@
       </c>
       <c r="F10" s="3">
         <f t="shared" si="2"/>
-        <v>0.15111111111111342</v>
+        <v>0.20571428571428574</v>
       </c>
       <c r="G10" s="3">
         <f t="shared" si="3"/>
         <v>0.13787234042553109</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2027</v>
       </c>
@@ -732,7 +742,7 @@
         <v>0.86962962962962909</v>
       </c>
       <c r="C11" s="3">
-        <v>0.83851851851851578</v>
+        <v>0.76571428571428579</v>
       </c>
       <c r="D11" s="3">
         <v>0.85617021276595828</v>
@@ -743,14 +753,15 @@
       </c>
       <c r="F11" s="3">
         <f t="shared" si="2"/>
-        <v>0.16148148148148422</v>
+        <v>0.23428571428571421</v>
       </c>
       <c r="G11" s="3">
         <f t="shared" si="3"/>
         <v>0.14382978723404172</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H11" s="5"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2028</v>
       </c>
@@ -758,7 +769,7 @@
         <v>0.86703703703703727</v>
       </c>
       <c r="C12" s="3">
-        <v>0.82814814814814852</v>
+        <v>0.73714285714285721</v>
       </c>
       <c r="D12" s="3">
         <v>0.85021276595744766</v>
@@ -769,14 +780,15 @@
       </c>
       <c r="F12" s="3">
         <f t="shared" si="2"/>
-        <v>0.17185185185185148</v>
+        <v>0.26285714285714279</v>
       </c>
       <c r="G12" s="3">
         <f t="shared" si="3"/>
         <v>0.14978723404255234</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2029</v>
       </c>
@@ -784,7 +796,7 @@
         <v>0.86444444444444457</v>
       </c>
       <c r="C13" s="3">
-        <v>0.81777777777777771</v>
+        <v>0.70857142857142863</v>
       </c>
       <c r="D13" s="3">
         <v>0.84425531914893703</v>
@@ -795,14 +807,15 @@
       </c>
       <c r="F13" s="3">
         <f t="shared" si="2"/>
-        <v>0.18222222222222229</v>
+        <v>0.29142857142857137</v>
       </c>
       <c r="G13" s="3">
         <f t="shared" si="3"/>
         <v>0.15574468085106297</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H13" s="5"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2030</v>
       </c>
@@ -810,7 +823,7 @@
         <v>0.86185185185185187</v>
       </c>
       <c r="C14" s="3">
-        <v>0.80740740740740691</v>
+        <v>0.68</v>
       </c>
       <c r="D14" s="3">
         <v>0.83829787234042641</v>
@@ -821,14 +834,15 @@
       </c>
       <c r="F14" s="3">
         <f t="shared" si="2"/>
-        <v>0.19259259259259309</v>
+        <v>0.31999999999999995</v>
       </c>
       <c r="G14" s="3">
         <f t="shared" si="3"/>
         <v>0.16170212765957359</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H14" s="5"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2031</v>
       </c>
@@ -836,7 +850,7 @@
         <v>0.85925925925925917</v>
       </c>
       <c r="C15" s="3">
-        <v>0.7970370370370361</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="D15" s="3">
         <v>0.83234042553191578</v>
@@ -847,14 +861,15 @@
       </c>
       <c r="F15" s="3">
         <f t="shared" si="2"/>
-        <v>0.2029629629629639</v>
+        <v>0.32199999999999995</v>
       </c>
       <c r="G15" s="3">
         <f t="shared" si="3"/>
         <v>0.16765957446808422</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H15" s="5"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2032</v>
       </c>
@@ -862,7 +877,7 @@
         <v>0.85666666666666647</v>
       </c>
       <c r="C16" s="3">
-        <v>0.78666666666666529</v>
+        <v>0.67600000000000005</v>
       </c>
       <c r="D16" s="3">
         <v>0.82638297872340516</v>
@@ -873,14 +888,15 @@
       </c>
       <c r="F16" s="3">
         <f t="shared" si="2"/>
-        <v>0.21333333333333471</v>
+        <v>0.32399999999999995</v>
       </c>
       <c r="G16" s="3">
         <f t="shared" si="3"/>
         <v>0.17361702127659484</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="5"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2033</v>
       </c>
@@ -888,7 +904,7 @@
         <v>0.85407407407407376</v>
       </c>
       <c r="C17" s="3">
-        <v>0.77629629629629449</v>
+        <v>0.67400000000000004</v>
       </c>
       <c r="D17" s="3">
         <v>0.82042553191489453</v>
@@ -899,14 +915,15 @@
       </c>
       <c r="F17" s="3">
         <f t="shared" si="2"/>
-        <v>0.22370370370370551</v>
+        <v>0.32599999999999996</v>
       </c>
       <c r="G17" s="3">
         <f t="shared" si="3"/>
         <v>0.17957446808510547</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="5"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2034</v>
       </c>
@@ -914,7 +931,7 @@
         <v>0.85148148148148106</v>
       </c>
       <c r="C18" s="3">
-        <v>0.76592592592592368</v>
+        <v>0.67200000000000004</v>
       </c>
       <c r="D18" s="3">
         <v>0.81446808510638391</v>
@@ -925,14 +942,15 @@
       </c>
       <c r="F18" s="3">
         <f t="shared" si="2"/>
-        <v>0.23407407407407632</v>
+        <v>0.32799999999999996</v>
       </c>
       <c r="G18" s="3">
         <f t="shared" si="3"/>
         <v>0.18553191489361609</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="5"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2035</v>
       </c>
@@ -940,7 +958,7 @@
         <v>0.84888888888888836</v>
       </c>
       <c r="C19" s="3">
-        <v>0.75555555555555287</v>
+        <v>0.67</v>
       </c>
       <c r="D19" s="3">
         <v>0.80851063829787329</v>
@@ -951,14 +969,15 @@
       </c>
       <c r="F19" s="3">
         <f t="shared" si="2"/>
-        <v>0.24444444444444713</v>
+        <v>0.32999999999999996</v>
       </c>
       <c r="G19" s="3">
         <f t="shared" si="3"/>
         <v>0.19148936170212671</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="5"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2036</v>
       </c>
@@ -966,7 +985,7 @@
         <v>0.84629629629629566</v>
       </c>
       <c r="C20" s="3">
-        <v>0.74518518518518562</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="D20" s="3">
         <v>0.80255319148936266</v>
@@ -977,14 +996,15 @@
       </c>
       <c r="F20" s="3">
         <f t="shared" si="2"/>
-        <v>0.25481481481481438</v>
+        <v>0.33199999999999996</v>
       </c>
       <c r="G20" s="3">
         <f t="shared" si="3"/>
         <v>0.19744680851063734</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="5"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2037</v>
       </c>
@@ -992,7 +1012,7 @@
         <v>0.84370370370370384</v>
       </c>
       <c r="C21" s="3">
-        <v>0.73481481481481481</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="D21" s="3">
         <v>0.79659574468085204</v>
@@ -1003,14 +1023,15 @@
       </c>
       <c r="F21" s="3">
         <f t="shared" si="2"/>
-        <v>0.26518518518518519</v>
+        <v>0.33399999999999996</v>
       </c>
       <c r="G21" s="3">
         <f t="shared" si="3"/>
         <v>0.20340425531914796</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="5"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2038</v>
       </c>
@@ -1018,7 +1039,7 @@
         <v>0.84111111111111114</v>
       </c>
       <c r="C22" s="3">
-        <v>0.724444444444444</v>
+        <v>0.66400000000000003</v>
       </c>
       <c r="D22" s="3">
         <v>0.79063829787234141</v>
@@ -1028,15 +1049,16 @@
         <v>0.15888888888888886</v>
       </c>
       <c r="F22" s="3">
-        <f t="shared" si="2"/>
-        <v>0.275555555555556</v>
+        <f>1-C22</f>
+        <v>0.33599999999999997</v>
       </c>
       <c r="G22" s="3">
         <f t="shared" si="3"/>
         <v>0.20936170212765859</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="5"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2039</v>
       </c>
@@ -1044,7 +1066,7 @@
         <v>0.83851851851851844</v>
       </c>
       <c r="C23" s="3">
-        <v>0.7140740740740732</v>
+        <v>0.66200000000000003</v>
       </c>
       <c r="D23" s="3">
         <v>0.78468085106383079</v>
@@ -1055,14 +1077,15 @@
       </c>
       <c r="F23" s="3">
         <f t="shared" si="2"/>
-        <v>0.2859259259259268</v>
+        <v>0.33799999999999997</v>
       </c>
       <c r="G23" s="3">
         <f t="shared" si="3"/>
         <v>0.21531914893616921</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="5"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2040</v>
       </c>
@@ -1070,7 +1093,7 @@
         <v>0.83592592592592574</v>
       </c>
       <c r="C24" s="3">
-        <v>0.70370370370370239</v>
+        <v>0.66</v>
       </c>
       <c r="D24" s="3">
         <v>0.77872340425532016</v>
@@ -1081,14 +1104,15 @@
       </c>
       <c r="F24" s="3">
         <f t="shared" si="2"/>
-        <v>0.29629629629629761</v>
+        <v>0.33999999999999997</v>
       </c>
       <c r="G24" s="3">
         <f t="shared" si="3"/>
         <v>0.22127659574467984</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="5"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2041</v>
       </c>
@@ -1096,7 +1120,7 @@
         <v>0.83333333333333304</v>
       </c>
       <c r="C25" s="3">
-        <v>0.69333333333333158</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="D25" s="3">
         <v>0.77276595744680954</v>
@@ -1107,14 +1131,15 @@
       </c>
       <c r="F25" s="3">
         <f t="shared" si="2"/>
-        <v>0.30666666666666842</v>
+        <v>0.34199999999999997</v>
       </c>
       <c r="G25" s="3">
         <f t="shared" si="3"/>
         <v>0.22723404255319046</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="5"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2042</v>
       </c>
@@ -1122,7 +1147,7 @@
         <v>0.83074074074074034</v>
       </c>
       <c r="C26" s="3">
-        <v>0.68296296296296077</v>
+        <v>0.65600000000000003</v>
       </c>
       <c r="D26" s="3">
         <v>0.76680851063829891</v>
@@ -1133,14 +1158,15 @@
       </c>
       <c r="F26" s="3">
         <f t="shared" si="2"/>
-        <v>0.31703703703703923</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="G26" s="3">
         <f t="shared" si="3"/>
         <v>0.23319148936170109</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="5"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2043</v>
       </c>
@@ -1148,7 +1174,7 @@
         <v>0.82814814814814763</v>
       </c>
       <c r="C27" s="3">
-        <v>0.67259259259258997</v>
+        <v>0.65400000000000003</v>
       </c>
       <c r="D27" s="3">
         <v>0.76085106382978829</v>
@@ -1159,14 +1185,15 @@
       </c>
       <c r="F27" s="3">
         <f t="shared" si="2"/>
-        <v>0.32740740740741003</v>
+        <v>0.34599999999999997</v>
       </c>
       <c r="G27" s="3">
         <f t="shared" si="3"/>
         <v>0.23914893617021171</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="5"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2044</v>
       </c>
@@ -1174,7 +1201,7 @@
         <v>0.82555555555555582</v>
       </c>
       <c r="C28" s="3">
-        <v>0.66222222222222271</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="D28" s="3">
         <v>0.75489361702127766</v>
@@ -1185,14 +1212,15 @@
       </c>
       <c r="F28" s="3">
         <f t="shared" si="2"/>
-        <v>0.33777777777777729</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="G28" s="3">
         <f t="shared" si="3"/>
         <v>0.24510638297872234</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="5"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2045</v>
       </c>
@@ -1200,7 +1228,7 @@
         <v>0.82296296296296312</v>
       </c>
       <c r="C29" s="3">
-        <v>0.6518518518518519</v>
+        <v>0.65</v>
       </c>
       <c r="D29" s="3">
         <v>0.74893617021276704</v>
@@ -1211,14 +1239,15 @@
       </c>
       <c r="F29" s="3">
         <f t="shared" si="2"/>
-        <v>0.3481481481481481</v>
+        <v>0.35</v>
       </c>
       <c r="G29" s="3">
         <f t="shared" si="3"/>
         <v>0.25106382978723296</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="5"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2046</v>
       </c>
@@ -1226,7 +1255,7 @@
         <v>0.82037037037037042</v>
       </c>
       <c r="C30" s="3">
-        <v>0.6414814814814811</v>
+        <v>0.64800000000000002</v>
       </c>
       <c r="D30" s="3">
         <v>0.74297872340425641</v>
@@ -1237,14 +1266,15 @@
       </c>
       <c r="F30" s="3">
         <f t="shared" si="2"/>
-        <v>0.3585185185185189</v>
+        <v>0.35199999999999998</v>
       </c>
       <c r="G30" s="3">
         <f t="shared" si="3"/>
         <v>0.25702127659574359</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="5"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2047</v>
       </c>
@@ -1252,7 +1282,7 @@
         <v>0.81777777777777771</v>
       </c>
       <c r="C31" s="3">
-        <v>0.63111111111111029</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="D31" s="3">
         <v>0.73702127659574579</v>
@@ -1263,14 +1293,15 @@
       </c>
       <c r="F31" s="3">
         <f t="shared" si="2"/>
-        <v>0.36888888888888971</v>
+        <v>0.35399999999999998</v>
       </c>
       <c r="G31" s="3">
         <f t="shared" si="3"/>
         <v>0.26297872340425421</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="5"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2048</v>
       </c>
@@ -1278,7 +1309,7 @@
         <v>0.81518518518518501</v>
       </c>
       <c r="C32" s="3">
-        <v>0.62074074074073948</v>
+        <v>0.64400000000000002</v>
       </c>
       <c r="D32" s="3">
         <v>0.73106382978723516</v>
@@ -1289,14 +1320,15 @@
       </c>
       <c r="F32" s="3">
         <f t="shared" si="2"/>
-        <v>0.37925925925926052</v>
+        <v>0.35599999999999998</v>
       </c>
       <c r="G32" s="3">
         <f t="shared" si="3"/>
         <v>0.26893617021276484</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="5"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2049</v>
       </c>
@@ -1304,7 +1336,7 @@
         <v>0.81259259259259231</v>
       </c>
       <c r="C33" s="3">
-        <v>0.61037037037036868</v>
+        <v>0.64200000000000002</v>
       </c>
       <c r="D33" s="3">
         <v>0.72510638297872454</v>
@@ -1315,14 +1347,15 @@
       </c>
       <c r="F33" s="3">
         <f t="shared" si="2"/>
-        <v>0.38962962962963132</v>
+        <v>0.35799999999999998</v>
       </c>
       <c r="G33" s="3">
         <f t="shared" si="3"/>
         <v>0.27489361702127546</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="5"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2050</v>
       </c>
@@ -1330,7 +1363,7 @@
         <v>0.81</v>
       </c>
       <c r="C34" s="3">
-        <v>0.6</v>
+        <v>0.64</v>
       </c>
       <c r="D34" s="3">
         <v>0.71914893617021391</v>
@@ -1341,14 +1374,15 @@
       </c>
       <c r="F34" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.36</v>
       </c>
       <c r="G34" s="3">
         <f t="shared" si="3"/>
         <v>0.28085106382978609</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="5"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2051</v>
       </c>
@@ -1356,7 +1390,7 @@
         <v>0.81</v>
       </c>
       <c r="C35" s="3">
-        <v>0.6</v>
+        <v>0.63800000000000001</v>
       </c>
       <c r="D35" s="3">
         <v>0.71319148936170329</v>
@@ -1367,14 +1401,15 @@
       </c>
       <c r="F35" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="G35" s="3">
         <f t="shared" si="3"/>
         <v>0.28680851063829671</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="5"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2052</v>
       </c>
@@ -1382,7 +1417,7 @@
         <v>0.81</v>
       </c>
       <c r="C36" s="3">
-        <v>0.6</v>
+        <v>0.63600000000000001</v>
       </c>
       <c r="D36" s="3">
         <v>0.70723404255319267</v>
@@ -1393,14 +1428,15 @@
       </c>
       <c r="F36" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.36399999999999999</v>
       </c>
       <c r="G36" s="3">
         <f t="shared" si="3"/>
         <v>0.29276595744680733</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="5"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2053</v>
       </c>
@@ -1408,7 +1444,7 @@
         <v>0.81</v>
       </c>
       <c r="C37" s="3">
-        <v>0.6</v>
+        <v>0.63400000000000001</v>
       </c>
       <c r="D37" s="3">
         <v>0.70127659574468204</v>
@@ -1419,14 +1455,15 @@
       </c>
       <c r="F37" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.36599999999999999</v>
       </c>
       <c r="G37" s="3">
         <f t="shared" si="3"/>
         <v>0.29872340425531796</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="5"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2054</v>
       </c>
@@ -1434,7 +1471,7 @@
         <v>0.81</v>
       </c>
       <c r="C38" s="3">
-        <v>0.6</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="D38" s="3">
         <v>0.69531914893617142</v>
@@ -1445,14 +1482,15 @@
       </c>
       <c r="F38" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.36799999999999999</v>
       </c>
       <c r="G38" s="3">
         <f t="shared" si="3"/>
         <v>0.30468085106382858</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2055</v>
       </c>
@@ -1460,7 +1498,7 @@
         <v>0.81</v>
       </c>
       <c r="C39" s="3">
-        <v>0.6</v>
+        <v>0.63</v>
       </c>
       <c r="D39" s="3">
         <v>0.68936170212766079</v>
@@ -1471,14 +1509,15 @@
       </c>
       <c r="F39" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.37</v>
       </c>
       <c r="G39" s="3">
         <f t="shared" si="3"/>
         <v>0.31063829787233921</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2056</v>
       </c>
@@ -1486,7 +1525,7 @@
         <v>0.81</v>
       </c>
       <c r="C40" s="3">
-        <v>0.6</v>
+        <v>0.628</v>
       </c>
       <c r="D40" s="3">
         <v>0.68340425531915017</v>
@@ -1497,14 +1536,15 @@
       </c>
       <c r="F40" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.372</v>
       </c>
       <c r="G40" s="3">
         <f t="shared" si="3"/>
         <v>0.31659574468084983</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="5"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2057</v>
       </c>
@@ -1512,7 +1552,7 @@
         <v>0.81</v>
       </c>
       <c r="C41" s="3">
-        <v>0.6</v>
+        <v>0.626</v>
       </c>
       <c r="D41" s="3">
         <v>0.67744680851063954</v>
@@ -1523,14 +1563,15 @@
       </c>
       <c r="F41" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.374</v>
       </c>
       <c r="G41" s="3">
         <f t="shared" si="3"/>
         <v>0.32255319148936046</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="5"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2058</v>
       </c>
@@ -1538,7 +1579,7 @@
         <v>0.81</v>
       </c>
       <c r="C42" s="3">
-        <v>0.6</v>
+        <v>0.624</v>
       </c>
       <c r="D42" s="3">
         <v>0.67148936170212892</v>
@@ -1549,14 +1590,15 @@
       </c>
       <c r="F42" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.376</v>
       </c>
       <c r="G42" s="3">
         <f t="shared" si="3"/>
         <v>0.32851063829787108</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="5"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2059</v>
       </c>
@@ -1564,7 +1606,7 @@
         <v>0.81</v>
       </c>
       <c r="C43" s="3">
-        <v>0.6</v>
+        <v>0.622</v>
       </c>
       <c r="D43" s="3">
         <v>0.66553191489361829</v>
@@ -1575,14 +1617,15 @@
       </c>
       <c r="F43" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.378</v>
       </c>
       <c r="G43" s="3">
         <f t="shared" si="3"/>
         <v>0.33446808510638171</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="5"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2060</v>
       </c>
@@ -1590,7 +1633,7 @@
         <v>0.81</v>
       </c>
       <c r="C44" s="3">
-        <v>0.6</v>
+        <v>0.62</v>
       </c>
       <c r="D44" s="3">
         <v>0.65957446808510767</v>
@@ -1601,14 +1644,15 @@
       </c>
       <c r="F44" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="G44" s="3">
         <f t="shared" si="3"/>
         <v>0.34042553191489233</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="5"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2061</v>
       </c>
@@ -1616,7 +1660,7 @@
         <v>0.81</v>
       </c>
       <c r="C45" s="3">
-        <v>0.6</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="D45" s="3">
         <v>0.65361702127659704</v>
@@ -1627,14 +1671,15 @@
       </c>
       <c r="F45" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.38200000000000001</v>
       </c>
       <c r="G45" s="3">
         <f t="shared" si="3"/>
         <v>0.34638297872340296</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="5"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2062</v>
       </c>
@@ -1642,7 +1687,7 @@
         <v>0.81</v>
       </c>
       <c r="C46" s="3">
-        <v>0.6</v>
+        <v>0.61599999999999999</v>
       </c>
       <c r="D46" s="3">
         <v>0.64765957446808642</v>
@@ -1653,14 +1698,15 @@
       </c>
       <c r="F46" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.38400000000000001</v>
       </c>
       <c r="G46" s="3">
         <f t="shared" si="3"/>
         <v>0.35234042553191358</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="5"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2063</v>
       </c>
@@ -1668,7 +1714,7 @@
         <v>0.81</v>
       </c>
       <c r="C47" s="3">
-        <v>0.6</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="D47" s="3">
         <v>0.64170212765957579</v>
@@ -1679,14 +1725,15 @@
       </c>
       <c r="F47" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.38600000000000001</v>
       </c>
       <c r="G47" s="3">
         <f t="shared" si="3"/>
         <v>0.35829787234042421</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="5"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2064</v>
       </c>
@@ -1694,7 +1741,7 @@
         <v>0.81</v>
       </c>
       <c r="C48" s="3">
-        <v>0.6</v>
+        <v>0.61199999999999999</v>
       </c>
       <c r="D48" s="3">
         <v>0.63574468085106517</v>
@@ -1705,14 +1752,15 @@
       </c>
       <c r="F48" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="G48" s="3">
         <f t="shared" si="3"/>
         <v>0.36425531914893483</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="5"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2065</v>
       </c>
@@ -1720,7 +1768,7 @@
         <v>0.81</v>
       </c>
       <c r="C49" s="3">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="D49" s="3">
         <v>0.62978723404255454</v>
@@ -1731,14 +1779,15 @@
       </c>
       <c r="F49" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="G49" s="3">
         <f t="shared" si="3"/>
         <v>0.37021276595744546</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="5"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2066</v>
       </c>
@@ -1746,7 +1795,7 @@
         <v>0.81</v>
       </c>
       <c r="C50" s="3">
-        <v>0.6</v>
+        <v>0.60799999999999998</v>
       </c>
       <c r="D50" s="3">
         <v>0.62382978723404392</v>
@@ -1757,14 +1806,15 @@
       </c>
       <c r="F50" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="G50" s="3">
         <f t="shared" si="3"/>
         <v>0.37617021276595608</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="5"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2067</v>
       </c>
@@ -1772,7 +1822,7 @@
         <v>0.81</v>
       </c>
       <c r="C51" s="3">
-        <v>0.6</v>
+        <v>0.60599999999999998</v>
       </c>
       <c r="D51" s="3">
         <v>0.6178723404255333</v>
@@ -1783,14 +1833,15 @@
       </c>
       <c r="F51" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.39400000000000002</v>
       </c>
       <c r="G51" s="3">
         <f t="shared" si="3"/>
         <v>0.3821276595744667</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="5"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2068</v>
       </c>
@@ -1798,7 +1849,7 @@
         <v>0.81</v>
       </c>
       <c r="C52" s="3">
-        <v>0.6</v>
+        <v>0.60399999999999998</v>
       </c>
       <c r="D52" s="3">
         <v>0.61191489361702267</v>
@@ -1809,14 +1860,15 @@
       </c>
       <c r="F52" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.39600000000000002</v>
       </c>
       <c r="G52" s="3">
         <f t="shared" si="3"/>
         <v>0.38808510638297733</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="5"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2069</v>
       </c>
@@ -1824,7 +1876,7 @@
         <v>0.81</v>
       </c>
       <c r="C53" s="3">
-        <v>0.6</v>
+        <v>0.60199999999999998</v>
       </c>
       <c r="D53" s="3">
         <v>0.60595744680851205</v>
@@ -1835,14 +1887,15 @@
       </c>
       <c r="F53" s="3">
         <f t="shared" si="2"/>
-        <v>0.4</v>
+        <v>0.39800000000000002</v>
       </c>
       <c r="G53" s="3">
         <f t="shared" si="3"/>
         <v>0.39404255319148795</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="5"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2070</v>
       </c>
@@ -1867,6 +1920,7 @@
         <f t="shared" si="3"/>
         <v>0.4</v>
       </c>
+      <c r="H54" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1877,9 +1931,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8083E4E5-64DF-40F0-9C07-164EDFCAC728}">
   <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C61" sqref="C61"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
@@ -1990,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5.4317291441177418E-2</v>
+        <v>0.18</v>
       </c>
       <c r="D8">
         <v>5.4317291441177418E-2</v>
@@ -2004,7 +2060,7 @@
         <v>4.985862568848496E-2</v>
       </c>
       <c r="C9">
-        <v>0.10599914695793734</v>
+        <v>0.44</v>
       </c>
       <c r="D9">
         <v>4.8688428589563661E-2</v>
@@ -2018,7 +2074,7 @@
         <v>5.163505718630635E-2</v>
       </c>
       <c r="C10">
-        <v>0.17905532863080123</v>
+        <v>0.77</v>
       </c>
       <c r="D10">
         <v>0.1122737510038251</v>
@@ -2032,7 +2088,7 @@
         <v>4.766373742253098E-2</v>
       </c>
       <c r="C11">
-        <v>0.23512609851208283</v>
+        <v>1.03</v>
       </c>
       <c r="D11">
         <v>0.1027019692502646</v>
@@ -2046,7 +2102,7 @@
         <v>5.0777942354915291E-2</v>
       </c>
       <c r="C12">
-        <v>0.33170344534772139</v>
+        <v>1.48</v>
       </c>
       <c r="D12">
         <v>0.17606055804969556</v>
@@ -2060,7 +2116,7 @@
         <v>0.10158476588480171</v>
       </c>
       <c r="C13">
-        <v>0.38858926203948529</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>0.23045587110312482</v>
@@ -2074,7 +2130,7 @@
         <v>0.10608273005743454</v>
       </c>
       <c r="C14">
-        <v>0.50374237806118194</v>
+        <v>2.6</v>
       </c>
       <c r="D14">
         <v>0.24236572018556793</v>
@@ -2088,7 +2144,7 @@
         <v>9.9563341622140242E-2</v>
       </c>
       <c r="C15">
-        <v>0.56916749283964985</v>
+        <v>2.6</v>
       </c>
       <c r="D15">
         <v>0.30250984495625499</v>
@@ -2102,7 +2158,7 @@
         <v>0.10416559241094724</v>
       </c>
       <c r="C16">
-        <v>0.70282972404796895</v>
+        <v>2.6</v>
       </c>
       <c r="D16">
         <v>0.31607390656216566</v>
@@ -2116,7 +2172,7 @@
         <v>0.15898467814141398</v>
       </c>
       <c r="C17">
-        <v>0.77542404680126453</v>
+        <v>2.81</v>
       </c>
       <c r="D17">
         <v>0.38077264903245484</v>
@@ -2130,7 +2186,7 @@
         <v>0.16441531108047094</v>
       </c>
       <c r="C18">
-        <v>1.0521250473835373</v>
+        <v>2.81</v>
       </c>
       <c r="D18">
         <v>0.39451766127788301</v>
@@ -2144,7 +2200,7 @@
         <v>0.15670930337782069</v>
       </c>
       <c r="C19">
-        <v>1.1319320926360523</v>
+        <v>2.81</v>
       </c>
       <c r="D19">
         <v>0.46331559028454838</v>
@@ -2158,7 +2214,7 @@
         <v>0.16174431780473295</v>
       </c>
       <c r="C20">
-        <v>1.3080536950688602</v>
+        <v>2.81</v>
       </c>
       <c r="D20">
         <v>0.57508321197737222</v>
@@ -2172,7 +2228,7 @@
         <v>0.22136356808256274</v>
       </c>
       <c r="C21">
-        <v>1.3993729707111624</v>
+        <v>2.81</v>
       </c>
       <c r="D21">
         <v>0.5528138426515713</v>
@@ -2186,7 +2242,7 @@
         <v>0.22654487314948438</v>
       </c>
       <c r="C22">
-        <v>1.5856332276610516</v>
+        <v>3.04</v>
       </c>
       <c r="D22">
         <v>0.66903413435673209</v>
@@ -2200,7 +2256,7 @@
         <v>0.22004749111861216</v>
       </c>
       <c r="C23">
-        <v>1.6951021965136683</v>
+        <v>3.04</v>
       </c>
       <c r="D23">
         <v>0.64982936155387949</v>
@@ -2214,7 +2270,7 @@
         <v>0.22437084668367299</v>
       </c>
       <c r="C24">
-        <v>1.8929325519482507</v>
+        <v>3.04</v>
       </c>
       <c r="D24">
         <v>0.7712753761345098</v>
@@ -2228,7 +2284,7 @@
         <v>0.29084275938572252</v>
       </c>
       <c r="C25">
-        <v>2.0142579963565135</v>
+        <v>3.04</v>
       </c>
       <c r="D25">
         <v>0.86525836182830917</v>
@@ -2242,7 +2298,7 @@
         <v>0.29526857879166263</v>
       </c>
       <c r="C26">
-        <v>2.2230578004537542</v>
+        <v>3.04</v>
       </c>
       <c r="D26">
         <v>0.87880493817316685</v>
@@ -2256,7 +2312,7 @@
         <v>0.28804087096198261</v>
       </c>
       <c r="C27">
-        <v>2.3484103447148215</v>
+        <v>3.27</v>
       </c>
       <c r="D27">
         <v>0.97600672594522031</v>
@@ -2270,7 +2326,7 @@
         <v>0.29182107610578201</v>
       </c>
       <c r="C28">
-        <v>2.5678745795984415</v>
+        <v>3.27</v>
       </c>
       <c r="D28">
         <v>0.98870302929049825</v>
@@ -2284,7 +2340,7 @@
         <v>0.36382936987508252</v>
       </c>
       <c r="C29">
-        <v>2.7109930051822144</v>
+        <v>3.27</v>
       </c>
       <c r="D29">
         <v>1.0945408350821859</v>
@@ -2298,7 +2354,7 @@
         <v>0.3681023290201908</v>
       </c>
       <c r="C30">
-        <v>2.9446988597973207</v>
+        <v>3.27</v>
       </c>
       <c r="D30">
         <v>1.240638154926796</v>
@@ -2312,7 +2368,7 @@
         <v>0.36236710617286544</v>
       </c>
       <c r="C31">
-        <v>3.1036006182154536</v>
+        <v>3.27</v>
       </c>
       <c r="D31">
         <v>1.2213018210690123</v>
@@ -2326,7 +2382,7 @@
         <v>0.36450414991305086</v>
       </c>
       <c r="C32">
-        <v>3.3344318227345116</v>
+        <v>3.51</v>
       </c>
       <c r="D32">
         <v>1.3668879195067827</v>
@@ -2340,7 +2396,7 @@
         <v>0.44327570705335895</v>
       </c>
       <c r="C33">
-        <v>3.508805319377938</v>
+        <v>3.51</v>
       </c>
       <c r="D33">
         <v>1.3495353960438132</v>
@@ -2354,7 +2410,7 @@
         <v>0.44539820923158413</v>
       </c>
       <c r="C34">
-        <v>3.7506368895029172</v>
+        <v>3.51</v>
       </c>
       <c r="D34">
         <v>1.5002916566809561</v>
@@ -2368,7 +2424,7 @@
         <v>0.45512267578289778</v>
       </c>
       <c r="C35">
-        <v>3.8981660882870277</v>
+        <v>3.51</v>
       </c>
       <c r="D35">
         <v>1.6390347440267756</v>
@@ -2382,7 +2438,7 @@
         <v>0.47472961057025576</v>
       </c>
       <c r="C36">
-        <v>4.0955044390315987</v>
+        <v>3.51</v>
       </c>
       <c r="D36">
         <v>1.6340663646228815</v>
@@ -2396,7 +2452,7 @@
         <v>0.49445157425788255</v>
       </c>
       <c r="C37">
-        <v>4.2945706588466717</v>
+        <v>3.76</v>
       </c>
       <c r="D37">
         <v>1.7848846499337521</v>
@@ -2410,7 +2466,7 @@
         <v>0.51428187372512268</v>
       </c>
       <c r="C38">
-        <v>4.4952642092054713</v>
+        <v>3.76</v>
       </c>
       <c r="D38">
         <v>1.7798579696185857</v>
@@ -2424,7 +2480,7 @@
         <v>0.53421432523657253</v>
       </c>
       <c r="C39">
-        <v>4.6974922031455488</v>
+        <v>3.76</v>
       </c>
       <c r="D39">
         <v>1.9363575034066538</v>
@@ -2438,7 +2494,7 @@
         <v>0.55424320688792683</v>
       </c>
       <c r="C40">
-        <v>4.9011686909494472</v>
+        <v>3.76</v>
       </c>
       <c r="D40">
         <v>1.931485502429082</v>
@@ -2452,7 +2508,7 @@
         <v>0.57436321628149756</v>
       </c>
       <c r="C41">
-        <v>5.106214024381468</v>
+        <v>3.76</v>
       </c>
       <c r="D41">
         <v>2.0934610924292558</v>
@@ -2466,7 +2522,7 @@
         <v>0.59456943277258367</v>
       </c>
       <c r="C42">
-        <v>5.3125542895837077</v>
+        <v>4.01</v>
       </c>
       <c r="D42">
         <v>2.2615323366156823</v>
@@ -2480,7 +2536,7 @@
         <v>0.6148572837208931</v>
       </c>
       <c r="C43">
-        <v>5.5201208001329363</v>
+        <v>4.01</v>
       </c>
       <c r="D43">
         <v>2.2561774334361888</v>
@@ -2494,7 +2550,7 @@
         <v>0.6352225142600233</v>
       </c>
       <c r="C44">
-        <v>5.7288496429425928</v>
+        <v>4.01</v>
       </c>
       <c r="D44">
         <v>2.4299485279912041</v>
@@ -2508,7 +2564,7 @@
         <v>0.65566116016437181</v>
       </c>
       <c r="C45">
-        <v>5.9386812706920749</v>
+        <v>4.01</v>
       </c>
       <c r="D45">
         <v>2.4247972066549535</v>
@@ -2522,7 +2578,7 @@
         <v>0.67616952344951786</v>
       </c>
       <c r="C46">
-        <v>6.1495601353156966</v>
+        <v>4.01</v>
       </c>
       <c r="D46">
         <v>2.6040049715910509</v>
@@ -2536,7 +2592,7 @@
         <v>0.69674415039002036</v>
       </c>
       <c r="C47">
-        <v>6.3614343578043613</v>
+        <v>4.28</v>
       </c>
       <c r="D47">
         <v>2.7893215458492087</v>
@@ -2550,7 +2606,7 @@
         <v>0.71738181167983284</v>
       </c>
       <c r="C48">
-        <v>6.5742554301915668</v>
+        <v>4.28</v>
       </c>
       <c r="D48">
         <v>2.7839498905235516</v>
@@ -2564,7 +2620,7 @@
         <v>0.7380794844954931</v>
       </c>
       <c r="C49">
-        <v>6.7879779461216083</v>
+        <v>4.28</v>
       </c>
       <c r="D49">
         <v>2.9746937687450044</v>
@@ -2578,7 +2634,7 @@
         <v>0.75883433625261487</v>
       </c>
       <c r="C50">
-        <v>7.002559356852907</v>
+        <v>4.28</v>
       </c>
       <c r="D50">
         <v>2.9693077288227068</v>
@@ -2592,7 +2648,7 @@
         <v>0.77964370987201059</v>
       </c>
       <c r="C51">
-        <v>7.2179597499379025</v>
+        <v>4.28</v>
       </c>
       <c r="D51">
         <v>3.16571359926116</v>
@@ -2606,7 +2662,7 @@
         <v>0.80050511039427252</v>
       </c>
       <c r="C52">
-        <v>7.4341416481584641</v>
+        <v>4.55</v>
       </c>
       <c r="D52">
         <v>3.3682448403475047</v>
@@ -2620,7 +2676,7 @@
         <v>0.82141619280103939</v>
       </c>
       <c r="C53">
-        <v>7.6510698265868342</v>
+        <v>4.55</v>
       </c>
       <c r="D53">
         <v>3.3626649745541739</v>
@@ -2634,7 +2690,7 @@
         <v>0.84237475091782776</v>
       </c>
       <c r="C54">
-        <v>7.8687111458933368</v>
+        <v>4.55</v>
       </c>
       <c r="D54">
         <v>3.5705833206164725</v>
@@ -2653,7 +2709,7 @@
       <selection activeCell="B2" sqref="B2:E54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
